--- a/target/classes/excels/TestData.xlsx
+++ b/target/classes/excels/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Test Name</t>
   </si>
@@ -43,78 +43,86 @@
     <t>1</t>
   </si>
   <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Amazon AUS</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Product QTY</t>
+  </si>
+  <si>
+    <t>65 inch led Tv</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>vasireddyuday.qa@gmail.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Iphone 11</t>
+  </si>
+  <si>
+    <t>Search for TV and plac the order</t>
+  </si>
+  <si>
+    <t>Search the Iphone and edit the qty and place order</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Add the product o cart and delete the product</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Create an Account</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>RunMode</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Amazon AUS</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Product QTY</t>
-  </si>
-  <si>
-    <t>65 inch led Tv</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>vasireddyuday.qa@gmail.com</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Iphone 11</t>
-  </si>
-  <si>
-    <t>Search for TV and plac the order</t>
-  </si>
-  <si>
-    <t>Search the Iphone and edit the qty and place order</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Add the product o cart and delete the product</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SKIP</t>
+    <t>testingteam534902@gmail.com</t>
+  </si>
+  <si>
+    <t>9959958829</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +230,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -279,95 +287,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -694,14 +630,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +656,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -744,53 +680,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="8.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="43.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="6.96484375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="9.66015625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="7" width="11.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="6" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -801,87 +737,110 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>6</v>
+      <c r="E3" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>19</v>
+      <c r="E5" s="27"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C4">
+  <conditionalFormatting sqref="C3:C5">
     <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
       <formula>#REF! = "&gt;TestStep"</formula>
     </cfRule>
@@ -892,14 +851,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId92"/>
-    <hyperlink ref="H3" r:id="rId93"/>
-    <hyperlink ref="H4" r:id="rId94"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
